--- a/biology/Botanique/Parcs_et_jardins_de_Menton/Parcs_et_jardins_de_Menton.xlsx
+++ b/biology/Botanique/Parcs_et_jardins_de_Menton/Parcs_et_jardins_de_Menton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La commune de Menton, comprend de nombreux parcs et jardins. La plupart se trouvent à l’est de la ville protégée par les falaises dites des Balzi Rossi. Les visites guidées de ses jardins se réservent au Service du Patrimoine.
 </t>
@@ -511,7 +523,9 @@
           <t>Jardins Biovès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jardins Bioves sur Commons
 Chaque année depuis 1934, ce jardin accueille l’exposition de sculptures d’agrumes durant la Fête du Citron.
@@ -543,7 +557,9 @@
           <t>Jardin d'agrumes du Palais Carnolès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jardin du Palais Carnolès sur Commons
 Situé avenue de la Madone, il abrite la plus importante collection d’agrumes d’Europe. Sur un terrain acheté aux moines de Lérins en 1717, le prince Antoine Ier décide de construire un palais au caractère de Trianon entouré de vergers. Le « jardin du prince » est réalisé en 1725 par l'architecte Latour et un plan de cette époque mentionne un jardin potager magnifique aménagé d’allées en étoile et irrigué par deux bassins à jet d’eau. À cette époque la propriété est ceinturée de haute muraille recouverte d’espaliers de raisin et arborée d’orangers du Portugal. Aujourd’hui, le jardin adopte un plan rectiligne et recense 137 variétés d'agrumes parmi lesquels 24 orangers doux (citrus sinensis), 6 bigaradiers (citrus aurantium), 6 citronniers (citrus limon)… 
@@ -577,10 +593,12 @@
           <t>Jardin botanique du Val Rahmeh</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jardin botanique du Val Rahmeh sur Commons
-En 1922, Lord Percy Radcliffe, ancien gouverneur de l’île de Malte, achète une villa à la famille Adhémar de Lantenac, bien connue à Menton. En 1925, il crée un jardin exotique. Rameh est le nom de son épouse d'origine indienne [1]. La propriété échoit dans les années 1950 à la botaniste Miss Campbell, passionnée par les daturas.
+En 1922, Lord Percy Radcliffe, ancien gouverneur de l’île de Malte, achète une villa à la famille Adhémar de Lantenac, bien connue à Menton. En 1925, il crée un jardin exotique. Rameh est le nom de son épouse d'origine indienne . La propriété échoit dans les années 1950 à la botaniste Miss Campbell, passionnée par les daturas.
 Propriété actuellement du Muséum national d'histoire naturelle, il abrite de nombreuses plantes exotiques et comestibles ainsi que quelques espèces rares comme le Sophora toromino, arbre mythique de l’Île de Pâques (jeunes spécimens).
 Son entrée s'effectue au fond d'une impasse, dans le quartier de Menton Garavan. 
 			Accueil du Val Rahmeh
@@ -615,7 +633,9 @@
           <t>La Serre de la Madone</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Serre de la Madone sur Commons
 La Serre de la Madone est un jardin botanique de sept hectares situé dans le val de Gorbio sur une colline autrefois arborée d’oliviers et de vignes. Il est créé dans les années 1920-1930 par le major Lawrence Johnston (propriétaire de Hidcote Manor en Angleterre) qui rapporta de ses voyages en Afrique du Sud et en Orient un grand nombre de plantes, dont le mahonia.
@@ -652,13 +672,15 @@
           <t>Villa Maria Serena</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Jardin de la Villa Serena sur Commons
 La villa a été construite par l'architecte Pierre Jansoulin pour l'ambassadeur de France en Autriche Louis-Alexandre Foucher de Careil. Elle a reçu la visite de l'impératrice Élisabeth d'Autriche.
-Elle a ensuite été la propriété de l'anglo-américain Henry Konig qui en a fait don à la ville en 1947. Depuis, elle accueille des hotes de marque (René Coty) et sert de cadre aux réceptions municipales [2].
+Elle a ensuite été la propriété de l'anglo-américain Henry Konig qui en a fait don à la ville en 1947. Depuis, elle accueille des hotes de marque (René Coty) et sert de cadre aux réceptions municipales .
 Elle est entourée d'un parc avec une vue dégagée vers la mer et la baie de Garavan. Proche de la frontière et protégé par les hautes falaises dites des Balzi Rossi, le jardin acclimate sur un hectare et demi des plantes tropicales et subtropicales dont certaines avec des dimensions exceptionnelles, comme la gerbe de Strelitzia alba ou des curiosités comme le dragonnier des Canaries ou l'espèce Chorisia speciosa. On y trouve également l'espèce Xanthoceras sorbifolium, originaire de Chine.
-Les troncs de certains palmiers portent des traces de combats de la Seconde Guerre mondiale [3] qui amputa aussi la tour de la villa d'un étage. Depuis 2006, ce bâtiment reçoit annuellement les étudiants du campus de Sciences Po Paris basé à Menton pour leur Gala de fin d'année[4].
+Les troncs de certains palmiers portent des traces de combats de la Seconde Guerre mondiale  qui amputa aussi la tour de la villa d'un étage. Depuis 2006, ce bâtiment reçoit annuellement les étudiants du campus de Sciences Po Paris basé à Menton pour leur Gala de fin d'année.
 			Maria Serena
 			Vue depuis les terrasses
 			Dragonnier des Canaries
@@ -692,7 +714,9 @@
           <t>Fontana Rosa</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Jardin de Fontana Rosa sur Commons
 Fontana Rosa, aussi appelé Jardin des Romanciers, est situé avenue Blasco-Ibanez.
@@ -729,7 +753,9 @@
           <t>Le clos du Peyronnet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé dans la zone de Garavan, le domaine appartient à William Waterfield, un passionné et collectionneur d'espèces tropicales. Il est paysagé d'un remarquable escalier d'eau constitué de bassins successifs.
 </t>
@@ -760,12 +786,14 @@
           <t>Domaine des Colombières</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Domaine des Colombières sur Commons
-En 1918, Emile Ladan-Bockairy et sa femme achètent une propriété appartenant au philosophe Fouillée. Elle est située au-dessus de la baie de Menton, à l’est de la vieille ville. Ils invitent leur ami, l'écrivain allemand Ferdinand Bac (1859-1952) mais aussi caricaturiste, décorateur, peintre, ferronnier et paysagiste, à reconstruire et à agrandir la villa[5] entre 1919 et 1927. Sa conception se nourrit de références antiques et de souvenirs de voyages en pays méditerranéens. Autour de la maison, Bac conçoit aussi le jardin, riche en folies, pavillons, colonnades, ponts et autres jardins secrets. Bac s'installe définitivement aux Colombières et y finit ses jours. Le mausolée édifié sur un rocher qui domine le jardin contient les tombes des trois amis [6].  
-Les jardins, sont plantés d’essences méditerranéenne avec la volonté de ne pas introduire de palmiers ou d'autres plantes tropicales exotiques [7].
-Le domaine a été classé monument historique en 1991[8].
+En 1918, Emile Ladan-Bockairy et sa femme achètent une propriété appartenant au philosophe Fouillée. Elle est située au-dessus de la baie de Menton, à l’est de la vieille ville. Ils invitent leur ami, l'écrivain allemand Ferdinand Bac (1859-1952) mais aussi caricaturiste, décorateur, peintre, ferronnier et paysagiste, à reconstruire et à agrandir la villa entre 1919 et 1927. Sa conception se nourrit de références antiques et de souvenirs de voyages en pays méditerranéens. Autour de la maison, Bac conçoit aussi le jardin, riche en folies, pavillons, colonnades, ponts et autres jardins secrets. Bac s'installe définitivement aux Colombières et y finit ses jours. Le mausolée édifié sur un rocher qui domine le jardin contient les tombes des trois amis .  
+Les jardins, sont plantés d’essences méditerranéenne avec la volonté de ne pas introduire de palmiers ou d'autres plantes tropicales exotiques .
+Le domaine a été classé monument historique en 1991.
 </t>
         </is>
       </c>
@@ -794,7 +822,9 @@
           <t>Citronneraie du Mas Florano</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Son jardin est créé il y a plusieurs siècles par une coopérative de paysans sur la colline de l’Annonciade. Il est composé d’une oliveraie très ancienne d’environ 200 arbres plus une citronneraie construite dans les années 1950 où prospèrent de nombreuses espèces d’agrumes. Il est labellisé « Jardin remarquable ».
 </t>
@@ -825,7 +855,9 @@
           <t>Parc du Pian</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Parc du Pian sur Commons
 C’est une oliveraie de plus de trois hectares du quartier de Garavan. Il abrite plus de 500 oliviers pluriséculaires aménagés en restanque. Les mentonnais aiment s’y promener le dimanche.
@@ -857,7 +889,9 @@
           <t>Boulevard de Garavan</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette promenade constitue un superbe point de vue sur la baie.
 Le nom des plantes (alignement public ou jardin privé) est parfois gravé sur le sol…
@@ -889,7 +923,9 @@
           <t>Square des États-Unis</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Implanté en plein centre-ville, il reste peu visible du boulevard. C’est un jardin d’agrément destiné à la promenade et au repos. Le nom des végétaux est inscrit et le feuillage dessiné sur le dallage du sol.
 </t>
@@ -920,7 +956,9 @@
           <t>Plateau Saint-Michel</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses 120 000 m2 arborés d'oliviers, de pins, de mimosas et de bruyères sont un véritable belvédère végétal sur le pays mentonnais.
 </t>
@@ -951,9 +989,11 @@
           <t>Les parcs botaniques disparus</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>La Villa Africa fondée par l'astrophysicien René Jarry-Desloges fut un site d'acclimatation important sur la Riviera, notamment en fruitiers tropicaux[9]. Le domaine, situé entre le boulevard Garavan et la gare SNCF est aujourd'hui loti. Une partie des collections de la Villa Africa a été décrite par R. de Vilmorin dans le B.S.B.F. de 1950, session extra, page 120.</t>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>La Villa Africa fondée par l'astrophysicien René Jarry-Desloges fut un site d'acclimatation important sur la Riviera, notamment en fruitiers tropicaux. Le domaine, situé entre le boulevard Garavan et la gare SNCF est aujourd'hui loti. Une partie des collections de la Villa Africa a été décrite par R. de Vilmorin dans le B.S.B.F. de 1950, session extra, page 120.</t>
         </is>
       </c>
     </row>
